--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2041414.553383233</v>
+        <v>2038598.661480781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2161609.965671463</v>
+        <v>2161609.965671462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4916450.854058769</v>
+        <v>4916450.854058766</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>249.7949955821169</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>248.4660795401952</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -837,10 +837,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>64.32559272825135</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.84356265118751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>297.2178492302936</v>
       </c>
       <c r="I5" t="n">
-        <v>67.99084664086496</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>87.95308749070807</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>245.3329181215772</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>270.2560060937925</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>129.2405072294739</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>256.4561542453787</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -1375,22 +1375,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H11" t="n">
         <v>319.7892792266962</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.65586808372747</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>277.4458799690586</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1469,7 +1469,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I12" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380023</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.26241643898372</v>
+        <v>20.26241643898367</v>
       </c>
       <c r="S12" t="n">
         <v>132.559580477319</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.5883158341028</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>267.5576399149267</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>107.648857700896</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>162.7772455866209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1624,7 +1624,7 @@
         <v>408.9283142668997</v>
       </c>
       <c r="H14" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.15461412430891</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U14" t="n">
-        <v>33.86304585008484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I15" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380023</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.26241643898372</v>
+        <v>20.26241643898367</v>
       </c>
       <c r="S15" t="n">
         <v>132.559580477319</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>102.6334731810265</v>
       </c>
       <c r="E16" t="n">
-        <v>63.06790460315218</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.5883158341028</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>123.4220042877751</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>289.8989183565583</v>
       </c>
       <c r="H17" t="n">
         <v>319.7892792266962</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1943,7 +1943,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I18" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380023</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.26241643898373</v>
+        <v>20.26241643898367</v>
       </c>
       <c r="S18" t="n">
-        <v>132.5595804773191</v>
+        <v>132.559580477319</v>
       </c>
       <c r="T18" t="n">
         <v>174.9922440788742</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>72.43929615171756</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.5137285205241</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>205.8235162664518</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>31.15461412430885</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U20" t="n">
         <v>253.1869771745492</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>259.3773791079431</v>
       </c>
       <c r="W20" t="n">
-        <v>192.8614736137534</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I21" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380024</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.26241643898373</v>
+        <v>20.26241643898369</v>
       </c>
       <c r="S21" t="n">
-        <v>132.5595804773191</v>
+        <v>132.559580477319</v>
       </c>
       <c r="T21" t="n">
         <v>174.9922440788742</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>137.8036006644942</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.167969972881569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>230.0277097106303</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>265.0616766911039</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2478,10 +2478,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.04132326122155</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.7402314108799</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>11.94721032648579</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>85.58352040714229</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
@@ -2654,7 +2654,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>49.99795536377253</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>147.0322809461158</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>90.61194078054716</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>388.2373164840507</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>46.43015552417427</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -2964,10 +2964,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>196.1071114281788</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>122.994962150015</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>271.2901417162215</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>222.2172295452413</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -3204,13 +3204,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>140.2136442677703</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>104.3944341592603</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>212.3425691598618</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>62.26559219195987</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>76.19311257242924</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>76.19311257242965</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>152.7430060483371</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>53.84591275523627</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66783807881613</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>184.6193440262945</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>67.08543821263125</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>152.4706207287584</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>38.91286352692094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>112.8456334705183</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>250.8883831139261</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,10 +3994,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>26.7759960837645</v>
       </c>
       <c r="U44" t="n">
         <v>253.1473000347972</v>
@@ -4045,7 +4045,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597849</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>167.389302781578</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>201.8329355741139</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.355795166185</v>
+        <v>1456.655979410492</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.355795166185</v>
+        <v>1456.655979410492</v>
       </c>
       <c r="D2" t="n">
-        <v>1606.914666382853</v>
+        <v>1456.655979410492</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>1054.072454527036</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>637.1780160570139</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V2" t="n">
-        <v>2763.849575909295</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W2" t="n">
-        <v>2392.850540877582</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="X2" t="n">
-        <v>2392.850540877582</v>
+        <v>1857.150725121889</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.850540877582</v>
+        <v>1857.150725121889</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M3" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N3" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O3" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
         <v>2146.089571124861</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>876.8554809010341</v>
+        <v>713.3827853642138</v>
       </c>
       <c r="C4" t="n">
-        <v>706.6503629670233</v>
+        <v>543.177667430203</v>
       </c>
       <c r="D4" t="n">
-        <v>706.6503629670233</v>
+        <v>543.177667430203</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4530,10 +4530,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>898.590804055515</v>
       </c>
       <c r="Y4" t="n">
-        <v>876.8554809010341</v>
+        <v>898.590804055515</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1687.52051987266</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C5" t="n">
-        <v>1687.52051987266</v>
+        <v>522.652680240431</v>
       </c>
       <c r="D5" t="n">
-        <v>1687.52051987266</v>
+        <v>522.652680240431</v>
       </c>
       <c r="E5" t="n">
-        <v>1284.936994989205</v>
+        <v>522.652680240431</v>
       </c>
       <c r="F5" t="n">
-        <v>868.0425565191823</v>
+        <v>509.7986458108128</v>
       </c>
       <c r="G5" t="n">
-        <v>454.8798010071854</v>
+        <v>500.67629433922</v>
       </c>
       <c r="H5" t="n">
-        <v>130.7967505736761</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2844.462869050715</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2844.462869050715</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2844.462869050715</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2473.463834019002</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>2084.011228952059</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.52051987266</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>568.1699486069232</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M6" t="n">
         <v>568.1699486069232</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C7" t="n">
         <v>62.11912770411553</v>
@@ -4755,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>611.4288749521137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>345.4495297729379</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>874.7246477298012</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>640.6443255127842</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>417.5322643294276</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.765595782636</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.954567377002</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D8" t="n">
-        <v>1030.51343859367</v>
+        <v>1214.802492962695</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.51343859367</v>
+        <v>812.2189680792399</v>
       </c>
       <c r="F8" t="n">
-        <v>613.6190001236475</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W8" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X8" t="n">
-        <v>2460.751050573432</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y8" t="n">
-        <v>2064.260341494033</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N9" t="n">
-        <v>1829.234834439669</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O9" t="n">
-        <v>2345.75511703065</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P9" t="n">
-        <v>2345.75511703065</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>833.0201833472095</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>833.0201833472095</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>549.6897812783872</v>
+        <v>704.5195297957904</v>
       </c>
       <c r="X10" t="n">
-        <v>315.6094590613702</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.49739787801357</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.715527395795</v>
+        <v>2147.561094883008</v>
       </c>
       <c r="C11" t="n">
-        <v>1175.540025898726</v>
+        <v>1754.385593385938</v>
       </c>
       <c r="D11" t="n">
-        <v>790.0988971153936</v>
+        <v>1754.385593385938</v>
       </c>
       <c r="E11" t="n">
-        <v>387.515372231938</v>
+        <v>1351.802068502483</v>
       </c>
       <c r="F11" t="n">
-        <v>387.515372231938</v>
+        <v>934.9076300324605</v>
       </c>
       <c r="G11" t="n">
-        <v>387.515372231938</v>
+        <v>521.8487267325617</v>
       </c>
       <c r="H11" t="n">
-        <v>64.49589826557823</v>
+        <v>198.8292527662019</v>
       </c>
       <c r="I11" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7845927599038</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K11" t="n">
-        <v>589.7144528346266</v>
+        <v>589.714452834627</v>
       </c>
       <c r="L11" t="n">
         <v>1099.097268220407</v>
       </c>
       <c r="M11" t="n">
-        <v>1662.970820761778</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N11" t="n">
-        <v>2208.943955098712</v>
+        <v>2208.943955098713</v>
       </c>
       <c r="O11" t="n">
-        <v>2666.133276597099</v>
+        <v>2666.1332765971</v>
       </c>
       <c r="P11" t="n">
-        <v>3028.957658493083</v>
+        <v>3028.957658493084</v>
       </c>
       <c r="Q11" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="R11" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="S11" t="n">
-        <v>3126.152622285247</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="T11" t="n">
-        <v>3126.152622285247</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="U11" t="n">
-        <v>3126.152622285247</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="V11" t="n">
-        <v>3126.152622285247</v>
+        <v>2944.546549673803</v>
       </c>
       <c r="W11" t="n">
-        <v>2755.153587253535</v>
+        <v>2944.546549673803</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.700982186591</v>
+        <v>2944.546549673803</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.210273107192</v>
+        <v>2548.055840594404</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>111.97003040073</v>
       </c>
       <c r="I12" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J12" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K12" t="n">
-        <v>64.49589826557823</v>
+        <v>393.0291516724039</v>
       </c>
       <c r="L12" t="n">
-        <v>559.8867467489575</v>
+        <v>888.4200001557833</v>
       </c>
       <c r="M12" t="n">
-        <v>1201.457336574392</v>
+        <v>1529.990589981217</v>
       </c>
       <c r="N12" t="n">
-        <v>1846.13868577107</v>
+        <v>1529.990589981217</v>
       </c>
       <c r="O12" t="n">
-        <v>2375.616404902846</v>
+        <v>2059.468309112994</v>
       </c>
       <c r="P12" t="n">
         <v>2375.616404902846</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="C13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="D13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="E13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="F13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="G13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="H13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K13" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L13" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388213</v>
       </c>
       <c r="M13" t="n">
-        <v>515.9997725551749</v>
+        <v>515.9997725551752</v>
       </c>
       <c r="N13" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284994</v>
       </c>
       <c r="O13" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568885</v>
       </c>
       <c r="P13" t="n">
-        <v>1000.732727221787</v>
+        <v>1000.732727221788</v>
       </c>
       <c r="Q13" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="R13" t="n">
-        <v>886.1717365669571</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="S13" t="n">
-        <v>886.1717365669571</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="T13" t="n">
-        <v>886.1717365669571</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="U13" t="n">
-        <v>600.7354857830638</v>
+        <v>722.5418654134713</v>
       </c>
       <c r="V13" t="n">
-        <v>334.7561406038881</v>
+        <v>456.5625202342956</v>
       </c>
       <c r="W13" t="n">
-        <v>64.49589826557823</v>
+        <v>173.2321181654732</v>
       </c>
       <c r="X13" t="n">
-        <v>64.49589826557823</v>
+        <v>173.2321181654732</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2398.668869165716</v>
+        <v>1444.311829007338</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.493367668647</v>
+        <v>1444.311829007338</v>
       </c>
       <c r="D14" t="n">
-        <v>1620.052238885315</v>
+        <v>1058.870700224005</v>
       </c>
       <c r="E14" t="n">
-        <v>1217.468714001859</v>
+        <v>894.4492400354993</v>
       </c>
       <c r="F14" t="n">
-        <v>800.5742755318367</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G14" t="n">
-        <v>387.515372231938</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="H14" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I14" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7845927599037</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K14" t="n">
-        <v>589.7144528346266</v>
+        <v>589.714452834627</v>
       </c>
       <c r="L14" t="n">
         <v>1099.097268220407</v>
       </c>
       <c r="M14" t="n">
-        <v>1662.970820761778</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N14" t="n">
-        <v>2208.943955098712</v>
+        <v>2208.943955098713</v>
       </c>
       <c r="O14" t="n">
-        <v>2666.133276597099</v>
+        <v>2666.1332765971</v>
       </c>
       <c r="P14" t="n">
-        <v>3028.957658493083</v>
+        <v>3028.957658493084</v>
       </c>
       <c r="Q14" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="R14" t="n">
-        <v>3193.32560608264</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="S14" t="n">
-        <v>3193.32560608264</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="T14" t="n">
-        <v>3193.32560608264</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="U14" t="n">
-        <v>3159.120509264372</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="V14" t="n">
-        <v>3159.120509264372</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="W14" t="n">
-        <v>2788.12147423266</v>
+        <v>2630.749888865077</v>
       </c>
       <c r="X14" t="n">
-        <v>2398.668869165716</v>
+        <v>2241.297283798133</v>
       </c>
       <c r="Y14" t="n">
-        <v>2398.668869165716</v>
+        <v>1844.806574718735</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>111.97003040073</v>
       </c>
       <c r="I15" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J15" t="n">
-        <v>64.49589826557823</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K15" t="n">
-        <v>64.49589826557823</v>
+        <v>511.289416405916</v>
       </c>
       <c r="L15" t="n">
-        <v>559.8867467489575</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M15" t="n">
-        <v>1201.457336574392</v>
+        <v>1430.117831882899</v>
       </c>
       <c r="N15" t="n">
         <v>1430.117831882899</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.595551014676</v>
+        <v>1959.595551014675</v>
       </c>
       <c r="P15" t="n">
         <v>2375.616404902846</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.5274670917626</v>
+        <v>336.3735425693554</v>
       </c>
       <c r="C16" t="n">
-        <v>415.5274670917626</v>
+        <v>336.3735425693554</v>
       </c>
       <c r="D16" t="n">
-        <v>259.8943539942773</v>
+        <v>232.7033676390256</v>
       </c>
       <c r="E16" t="n">
-        <v>196.1893998496791</v>
+        <v>232.7033676390256</v>
       </c>
       <c r="F16" t="n">
-        <v>196.1893998496791</v>
+        <v>232.7033676390256</v>
       </c>
       <c r="G16" t="n">
-        <v>196.1893998496791</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="H16" t="n">
-        <v>196.1893998496791</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I16" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J16" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K16" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L16" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388213</v>
       </c>
       <c r="M16" t="n">
-        <v>515.9997725551749</v>
+        <v>515.9997725551752</v>
       </c>
       <c r="N16" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284994</v>
       </c>
       <c r="O16" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568885</v>
       </c>
       <c r="P16" t="n">
-        <v>1000.732727221787</v>
+        <v>1000.732727221788</v>
       </c>
       <c r="Q16" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="R16" t="n">
-        <v>886.1717365669571</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="S16" t="n">
-        <v>886.1717365669571</v>
+        <v>805.9738736386806</v>
       </c>
       <c r="T16" t="n">
-        <v>886.1717365669571</v>
+        <v>570.4538647863724</v>
       </c>
       <c r="U16" t="n">
-        <v>600.7354857830638</v>
+        <v>570.4538647863724</v>
       </c>
       <c r="V16" t="n">
-        <v>600.7354857830638</v>
+        <v>570.4538647863724</v>
       </c>
       <c r="W16" t="n">
-        <v>600.7354857830638</v>
+        <v>570.4538647863724</v>
       </c>
       <c r="X16" t="n">
-        <v>600.7354857830638</v>
+        <v>336.3735425693554</v>
       </c>
       <c r="Y16" t="n">
-        <v>600.7354857830638</v>
+        <v>336.3735425693554</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>905.3595649287804</v>
+        <v>1458.95919277149</v>
       </c>
       <c r="C17" t="n">
-        <v>512.1840634317109</v>
+        <v>1065.78369127442</v>
       </c>
       <c r="D17" t="n">
-        <v>387.515372231938</v>
+        <v>680.3425624910878</v>
       </c>
       <c r="E17" t="n">
-        <v>387.515372231938</v>
+        <v>680.3425624910878</v>
       </c>
       <c r="F17" t="n">
-        <v>387.515372231938</v>
+        <v>680.3425624910878</v>
       </c>
       <c r="G17" t="n">
         <v>387.515372231938</v>
       </c>
       <c r="H17" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I17" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J17" t="n">
-        <v>217.7845927599038</v>
+        <v>217.7845927599037</v>
       </c>
       <c r="K17" t="n">
-        <v>589.7144528346266</v>
+        <v>589.7144528346269</v>
       </c>
       <c r="L17" t="n">
-        <v>1099.097268220406</v>
+        <v>1099.097268220407</v>
       </c>
       <c r="M17" t="n">
-        <v>1662.970820761777</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N17" t="n">
-        <v>2208.943955098711</v>
+        <v>2208.943955098713</v>
       </c>
       <c r="O17" t="n">
-        <v>2666.133276597098</v>
+        <v>2666.133276597101</v>
       </c>
       <c r="P17" t="n">
-        <v>3028.957658493083</v>
+        <v>3028.957658493084</v>
       </c>
       <c r="Q17" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="R17" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="S17" t="n">
-        <v>3060.647890503147</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="T17" t="n">
-        <v>3060.647890503147</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="U17" t="n">
-        <v>2804.903469114714</v>
+        <v>2969.050491890479</v>
       </c>
       <c r="V17" t="n">
-        <v>2462.796659818232</v>
+        <v>2626.943682593998</v>
       </c>
       <c r="W17" t="n">
-        <v>2091.797624786519</v>
+        <v>2255.944647562285</v>
       </c>
       <c r="X17" t="n">
-        <v>1702.345019719576</v>
+        <v>2255.944647562285</v>
       </c>
       <c r="Y17" t="n">
-        <v>1305.854310640177</v>
+        <v>1859.453938482887</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>111.97003040073</v>
       </c>
       <c r="I18" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J18" t="n">
-        <v>64.49589826557823</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K18" t="n">
-        <v>64.49589826557823</v>
+        <v>511.2894164059159</v>
       </c>
       <c r="L18" t="n">
-        <v>559.8867467489574</v>
+        <v>822.7868147943856</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.196557474725</v>
+        <v>1464.35740461982</v>
       </c>
       <c r="N18" t="n">
-        <v>1846.13868577107</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="O18" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="P18" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q18" t="n">
         <v>2375.616404902846</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.49589826557823</v>
+        <v>700.7267877664915</v>
       </c>
       <c r="C19" t="n">
-        <v>64.49589826557823</v>
+        <v>700.7267877664915</v>
       </c>
       <c r="D19" t="n">
-        <v>64.49589826557823</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="E19" t="n">
-        <v>64.49589826557823</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="F19" t="n">
-        <v>64.49589826557823</v>
+        <v>387.7677398819793</v>
       </c>
       <c r="G19" t="n">
-        <v>64.49589826557823</v>
+        <v>219.5602705085319</v>
       </c>
       <c r="H19" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I19" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J19" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K19" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L19" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388213</v>
       </c>
       <c r="M19" t="n">
-        <v>515.9997725551749</v>
+        <v>515.9997725551752</v>
       </c>
       <c r="N19" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284994</v>
       </c>
       <c r="O19" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568885</v>
       </c>
       <c r="P19" t="n">
-        <v>1000.732727221787</v>
+        <v>1000.732727221788</v>
       </c>
       <c r="Q19" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="R19" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="S19" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="T19" t="n">
-        <v>772.4581073450556</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="U19" t="n">
-        <v>564.555565661771</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="V19" t="n">
-        <v>298.5762204825951</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="W19" t="n">
-        <v>298.5762204825951</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="X19" t="n">
-        <v>64.49589826557823</v>
+        <v>773.8977939803476</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.49589826557823</v>
+        <v>773.8977939803476</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1245.696053429435</v>
+        <v>1662.590491899458</v>
       </c>
       <c r="C20" t="n">
-        <v>852.5205519323659</v>
+        <v>1269.414990402388</v>
       </c>
       <c r="D20" t="n">
-        <v>467.0794231490337</v>
+        <v>883.9738616190559</v>
       </c>
       <c r="E20" t="n">
-        <v>64.49589826557823</v>
+        <v>481.3903367356005</v>
       </c>
       <c r="F20" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="G20" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="H20" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="I20" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J20" t="n">
-        <v>217.7845927599038</v>
+        <v>217.7845927599043</v>
       </c>
       <c r="K20" t="n">
-        <v>589.7144528346266</v>
+        <v>589.7144528346273</v>
       </c>
       <c r="L20" t="n">
-        <v>1099.097268220407</v>
+        <v>1099.097268220408</v>
       </c>
       <c r="M20" t="n">
-        <v>1662.970820761778</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N20" t="n">
-        <v>2208.943955098712</v>
+        <v>2208.943955098713</v>
       </c>
       <c r="O20" t="n">
-        <v>2666.133276597099</v>
+        <v>2666.1332765971</v>
       </c>
       <c r="P20" t="n">
-        <v>3028.957658493083</v>
+        <v>3028.957658493085</v>
       </c>
       <c r="Q20" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="R20" t="n">
-        <v>3224.794913278911</v>
+        <v>3193.325606082642</v>
       </c>
       <c r="S20" t="n">
-        <v>3224.794913278911</v>
+        <v>3193.325606082642</v>
       </c>
       <c r="T20" t="n">
-        <v>3224.794913278911</v>
+        <v>2970.279616700518</v>
       </c>
       <c r="U20" t="n">
-        <v>2969.050491890478</v>
+        <v>2714.535195312084</v>
       </c>
       <c r="V20" t="n">
-        <v>2626.943682593996</v>
+        <v>2452.537842677798</v>
       </c>
       <c r="W20" t="n">
-        <v>2432.134113287174</v>
+        <v>2452.537842677798</v>
       </c>
       <c r="X20" t="n">
-        <v>2042.681508220231</v>
+        <v>2063.085237610855</v>
       </c>
       <c r="Y20" t="n">
-        <v>1646.190799140832</v>
+        <v>2063.085237610855</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>111.97003040073</v>
       </c>
       <c r="I21" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J21" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K21" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="L21" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="M21" t="n">
-        <v>706.0664880910123</v>
+        <v>518.8588315998736</v>
       </c>
       <c r="N21" t="n">
-        <v>1376.008616387357</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O21" t="n">
-        <v>1905.486335519133</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.507189407303</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q21" t="n">
         <v>2375.616404902846</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.69145449234</v>
+        <v>550.7857327969909</v>
       </c>
       <c r="C22" t="n">
-        <v>203.69145449234</v>
+        <v>380.5806148629802</v>
       </c>
       <c r="D22" t="n">
-        <v>203.69145449234</v>
+        <v>380.5806148629802</v>
       </c>
       <c r="E22" t="n">
-        <v>203.69145449234</v>
+        <v>225.0218027221827</v>
       </c>
       <c r="F22" t="n">
-        <v>203.69145449234</v>
+        <v>67.6958679351556</v>
       </c>
       <c r="G22" t="n">
-        <v>64.49589826557823</v>
+        <v>67.6958679351556</v>
       </c>
       <c r="H22" t="n">
-        <v>64.49589826557823</v>
+        <v>67.6958679351556</v>
       </c>
       <c r="I22" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="J22" t="n">
-        <v>64.49589826557823</v>
+        <v>64.49589826557826</v>
       </c>
       <c r="K22" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L22" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388213</v>
       </c>
       <c r="M22" t="n">
-        <v>515.9997725551749</v>
+        <v>515.9997725551752</v>
       </c>
       <c r="N22" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284994</v>
       </c>
       <c r="O22" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568885</v>
       </c>
       <c r="P22" t="n">
-        <v>1000.732727221787</v>
+        <v>1000.732727221788</v>
       </c>
       <c r="Q22" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="R22" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="S22" t="n">
-        <v>1007.978116197364</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="T22" t="n">
-        <v>772.4581073450556</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="U22" t="n">
-        <v>487.0218565611624</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="V22" t="n">
-        <v>487.0218565611624</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="W22" t="n">
-        <v>203.69145449234</v>
+        <v>1007.978116197365</v>
       </c>
       <c r="X22" t="n">
-        <v>203.69145449234</v>
+        <v>773.8977939803476</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.69145449234</v>
+        <v>550.7857327969909</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2519.522183495031</v>
+        <v>1421.960353982697</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.346681997961</v>
+        <v>1028.784852485628</v>
       </c>
       <c r="D23" t="n">
-        <v>1740.905553214629</v>
+        <v>796.4336305556981</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.322028331173</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="F23" t="n">
-        <v>921.4275898611513</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G23" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I23" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6007,34 +6007,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3577.208601638122</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U23" t="n">
-        <v>3577.208601638122</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V23" t="n">
-        <v>3577.208601638122</v>
+        <v>2979.397448872149</v>
       </c>
       <c r="W23" t="n">
-        <v>3577.208601638122</v>
+        <v>2608.398413840436</v>
       </c>
       <c r="X23" t="n">
-        <v>3187.755996571179</v>
+        <v>2218.945808773493</v>
       </c>
       <c r="Y23" t="n">
-        <v>2920.016929206427</v>
+        <v>1822.455099694094</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>439.6857585687511</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794192</v>
+        <v>439.6857585687511</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.529170671759</v>
+        <v>1147.821228861091</v>
       </c>
       <c r="N24" t="n">
-        <v>2074.797953750985</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2977.643484927386</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C25" t="n">
-        <v>2807.438366993376</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3712.161250866686</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>3712.161250866686</v>
+        <v>1033.591058670519</v>
       </c>
       <c r="T25" t="n">
-        <v>3712.161250866686</v>
+        <v>1033.591058670519</v>
       </c>
       <c r="U25" t="n">
-        <v>3712.161250866686</v>
+        <v>1033.591058670519</v>
       </c>
       <c r="V25" t="n">
-        <v>3446.18190568751</v>
+        <v>767.6117134913438</v>
       </c>
       <c r="W25" t="n">
-        <v>3162.851503618688</v>
+        <v>484.2813114225214</v>
       </c>
       <c r="X25" t="n">
-        <v>3162.851503618688</v>
+        <v>484.2813114225214</v>
       </c>
       <c r="Y25" t="n">
-        <v>3162.851503618688</v>
+        <v>261.1692502391647</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.229275930393</v>
+        <v>1490.082251685443</v>
       </c>
       <c r="C26" t="n">
-        <v>876.0537744333237</v>
+        <v>1096.906750188373</v>
       </c>
       <c r="D26" t="n">
-        <v>490.6126456499915</v>
+        <v>1096.906750188373</v>
       </c>
       <c r="E26" t="n">
-        <v>88.02912076653598</v>
+        <v>694.3232253049177</v>
       </c>
       <c r="F26" t="n">
-        <v>75.96123154786346</v>
+        <v>277.4287868348955</v>
       </c>
       <c r="G26" t="n">
-        <v>75.96123154786346</v>
+        <v>277.4287868348955</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K26" t="n">
         <v>705.31081511305</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M26" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O26" t="n">
         <v>3115.769891361771</v>
@@ -6253,25 +6253,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585819</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116326</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819845</v>
+        <v>3047.519346574894</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788132</v>
+        <v>2676.520311543182</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721189</v>
+        <v>2287.067706476239</v>
       </c>
       <c r="Y26" t="n">
-        <v>1669.72402164179</v>
+        <v>1890.57699739684</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K27" t="n">
-        <v>589.997147027437</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L27" t="n">
-        <v>1142.429615858993</v>
+        <v>313.8895596758443</v>
       </c>
       <c r="M27" t="n">
-        <v>1142.429615858993</v>
+        <v>1022.025029968184</v>
       </c>
       <c r="N27" t="n">
-        <v>1294.106752377725</v>
+        <v>1760.29381304741</v>
       </c>
       <c r="O27" t="n">
-        <v>1886.090011940317</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2651.805253895891</v>
+        <v>839.6197773270017</v>
       </c>
       <c r="C28" t="n">
-        <v>2651.805253895891</v>
+        <v>669.4146593929909</v>
       </c>
       <c r="D28" t="n">
-        <v>2651.805253895891</v>
+        <v>513.7815462955057</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.805253895891</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="F28" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="G28" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="H28" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I28" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>3686.359411909727</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>3488.271420568132</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T28" t="n">
-        <v>3253.711577637593</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U28" t="n">
-        <v>2968.287584290999</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V28" t="n">
-        <v>2702.308239111823</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="W28" t="n">
-        <v>2651.805253895891</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="X28" t="n">
-        <v>2651.805253895891</v>
+        <v>988.1372328281287</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.805253895891</v>
+        <v>839.6197773270017</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1674.055825181743</v>
+        <v>1890.57699739684</v>
       </c>
       <c r="C29" t="n">
-        <v>1280.880323684673</v>
+        <v>1497.40149589977</v>
       </c>
       <c r="D29" t="n">
-        <v>895.4391949013411</v>
+        <v>1111.960367116438</v>
       </c>
       <c r="E29" t="n">
-        <v>492.8556700178857</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F29" t="n">
-        <v>75.96123154786345</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G29" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I29" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K29" t="n">
         <v>705.3108151130497</v>
@@ -6481,34 +6481,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
         <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116325</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819844</v>
+        <v>3047.519346574894</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788131</v>
+        <v>2676.520311543182</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721188</v>
+        <v>2287.067706476239</v>
       </c>
       <c r="Y29" t="n">
-        <v>1674.055825181743</v>
+        <v>1890.57699739684</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>128.7706159442457</v>
+        <v>95.8673728790111</v>
       </c>
       <c r="K30" t="n">
-        <v>499.7258739235147</v>
+        <v>466.82263085828</v>
       </c>
       <c r="L30" t="n">
-        <v>1052.15834275507</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M30" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>912.4273982201044</v>
+        <v>714.6842095071841</v>
       </c>
       <c r="C31" t="n">
-        <v>865.5282512259889</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="D31" t="n">
-        <v>709.8951381285037</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E31" t="n">
-        <v>554.3363259877062</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F31" t="n">
-        <v>397.0103912006792</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
         <v>75.96123154786345</v>
@@ -6627,13 +6627,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T31" t="n">
-        <v>912.4273982201044</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U31" t="n">
-        <v>912.4273982201044</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="V31" t="n">
-        <v>912.4273982201044</v>
+        <v>899.8922281984853</v>
       </c>
       <c r="W31" t="n">
-        <v>912.4273982201044</v>
+        <v>899.8922281984853</v>
       </c>
       <c r="X31" t="n">
-        <v>912.4273982201044</v>
+        <v>899.8922281984853</v>
       </c>
       <c r="Y31" t="n">
-        <v>912.4273982201044</v>
+        <v>899.8922281984853</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1674.055825181743</v>
+        <v>1677.664697452189</v>
       </c>
       <c r="C32" t="n">
-        <v>1280.880323684673</v>
+        <v>1284.48919595512</v>
       </c>
       <c r="D32" t="n">
-        <v>895.4391949013411</v>
+        <v>1010.458749777118</v>
       </c>
       <c r="E32" t="n">
-        <v>492.8556700178857</v>
+        <v>607.8752248936629</v>
       </c>
       <c r="F32" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="G32" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I32" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
         <v>2575.851817818621</v>
@@ -6718,34 +6718,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3798.061577393172</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U32" t="n">
-        <v>3573.599729367676</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V32" t="n">
-        <v>3231.492920071194</v>
+        <v>3235.101792341641</v>
       </c>
       <c r="W32" t="n">
-        <v>2860.493885039482</v>
+        <v>2864.102757309929</v>
       </c>
       <c r="X32" t="n">
-        <v>2471.041279972539</v>
+        <v>2474.650152242985</v>
       </c>
       <c r="Y32" t="n">
-        <v>2074.55057089314</v>
+        <v>2078.159443163586</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>846.0277684097882</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="C34" t="n">
-        <v>846.0277684097882</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="D34" t="n">
-        <v>846.0277684097882</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="E34" t="n">
-        <v>690.4689562689907</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="F34" t="n">
-        <v>533.1430214819636</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G34" t="n">
-        <v>365.1602717923346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H34" t="n">
-        <v>212.0938618291478</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J34" t="n">
         <v>75.96123154786345</v>
@@ -6864,13 +6864,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6879,31 +6879,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>1080.587611340327</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T34" t="n">
-        <v>846.0277684097882</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U34" t="n">
-        <v>846.0277684097882</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="V34" t="n">
-        <v>846.0277684097882</v>
+        <v>918.6806403103587</v>
       </c>
       <c r="W34" t="n">
-        <v>846.0277684097882</v>
+        <v>635.3502382415364</v>
       </c>
       <c r="X34" t="n">
-        <v>846.0277684097882</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="Y34" t="n">
-        <v>846.0277684097882</v>
+        <v>401.2699160245195</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1684.030229611419</v>
+        <v>1701.172625711542</v>
       </c>
       <c r="C35" t="n">
-        <v>1290.854728114349</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="D35" t="n">
-        <v>905.4135993310172</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E35" t="n">
         <v>905.4135993310172</v>
@@ -6937,10 +6937,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393172</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U35" t="n">
-        <v>3583.574133797352</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V35" t="n">
-        <v>3241.467324500871</v>
+        <v>3258.609720600994</v>
       </c>
       <c r="W35" t="n">
-        <v>2870.468289469158</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="X35" t="n">
-        <v>2481.015684402215</v>
+        <v>2498.158080502338</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.524975322816</v>
+        <v>2101.667371422939</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N36" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T37" t="n">
-        <v>3563.501734462634</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U37" t="n">
-        <v>3278.077741116039</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V37" t="n">
-        <v>3012.098395936864</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W37" t="n">
-        <v>2728.767993868041</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X37" t="n">
-        <v>2651.80525389589</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="Y37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2404.502628619254</v>
+        <v>2355.919174065942</v>
       </c>
       <c r="C38" t="n">
-        <v>2011.327127122184</v>
+        <v>1962.743672568872</v>
       </c>
       <c r="D38" t="n">
-        <v>1625.885998338852</v>
+        <v>1577.30254378554</v>
       </c>
       <c r="E38" t="n">
-        <v>1223.302473455396</v>
+        <v>1174.719018902084</v>
       </c>
       <c r="F38" t="n">
-        <v>806.4080349853741</v>
+        <v>757.8245804320621</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8501056722426</v>
+        <v>345.2666511189307</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U38" t="n">
-        <v>3645.330499340868</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="V38" t="n">
-        <v>3645.330499340868</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="W38" t="n">
-        <v>3590.940688476993</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="X38" t="n">
-        <v>3201.48808341005</v>
+        <v>3152.904628856737</v>
       </c>
       <c r="Y38" t="n">
-        <v>2804.99737433065</v>
+        <v>2756.413919777338</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O39" t="n">
-        <v>1928.512430234351</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.96123154786345</v>
+        <v>1035.73336916</v>
       </c>
       <c r="C40" t="n">
-        <v>75.96123154786345</v>
+        <v>865.5282512259889</v>
       </c>
       <c r="D40" t="n">
-        <v>75.96123154786345</v>
+        <v>709.8951381285037</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7353,31 +7353,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>1144.775294359473</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U40" t="n">
-        <v>859.3513010128785</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V40" t="n">
-        <v>593.3719558337027</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="W40" t="n">
-        <v>310.0415537648803</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="X40" t="n">
-        <v>75.96123154786345</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.96123154786345</v>
+        <v>1035.73336916</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2086.613754494874</v>
+        <v>1642.813329737748</v>
       </c>
       <c r="C41" t="n">
-        <v>1693.438252997805</v>
+        <v>1249.637828240678</v>
       </c>
       <c r="D41" t="n">
-        <v>1307.997124214473</v>
+        <v>864.1966994573459</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4135993310172</v>
+        <v>461.6131745738904</v>
       </c>
       <c r="F41" t="n">
-        <v>488.5191608609949</v>
+        <v>461.6131745738904</v>
       </c>
       <c r="G41" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J41" t="n">
         <v>270.9233280874837</v>
       </c>
       <c r="K41" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M41" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
@@ -7444,19 +7444,19 @@
         <v>3798.061577393173</v>
       </c>
       <c r="U41" t="n">
-        <v>3644.050849384326</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="V41" t="n">
-        <v>3644.050849384326</v>
+        <v>3200.250424627199</v>
       </c>
       <c r="W41" t="n">
-        <v>3273.051814352613</v>
+        <v>2829.251389595487</v>
       </c>
       <c r="X41" t="n">
-        <v>2883.59920928567</v>
+        <v>2439.798784528543</v>
       </c>
       <c r="Y41" t="n">
-        <v>2487.108500206271</v>
+        <v>2043.308075449145</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K42" t="n">
         <v>446.9164895271324</v>
@@ -7499,16 +7499,16 @@
         <v>999.3489583586882</v>
       </c>
       <c r="M42" t="n">
-        <v>999.3489583586882</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.617741437914</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O42" t="n">
-        <v>2329.601001000506</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
       <c r="C43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
       <c r="D43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
       <c r="E43" t="n">
-        <v>126.4642167637957</v>
+        <v>401.2699160245195</v>
       </c>
       <c r="F43" t="n">
-        <v>126.4642167637957</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="G43" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H43" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I43" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K43" t="n">
         <v>188.6896288950475</v>
@@ -7593,28 +7593,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R43" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S43" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T43" t="n">
-        <v>677.8675552895655</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U43" t="n">
-        <v>392.4435619429715</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V43" t="n">
-        <v>126.4642167637957</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
       <c r="X43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.4642167637957</v>
+        <v>556.828728165317</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.920139034229</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C44" t="n">
-        <v>1591.744637537159</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.744637537159</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E44" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G44" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H44" t="n">
         <v>190.9807864236407</v>
@@ -7648,10 +7648,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7660,40 +7660,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S44" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T44" t="n">
-        <v>3798.061577393173</v>
+        <v>3618.284038650197</v>
       </c>
       <c r="U44" t="n">
-        <v>3542.357233923681</v>
+        <v>3362.579695180704</v>
       </c>
       <c r="V44" t="n">
-        <v>3542.357233923681</v>
+        <v>3362.579695180704</v>
       </c>
       <c r="W44" t="n">
-        <v>3171.358198891968</v>
+        <v>2991.580660148992</v>
       </c>
       <c r="X44" t="n">
-        <v>2781.905593825025</v>
+        <v>2602.128055082048</v>
       </c>
       <c r="Y44" t="n">
-        <v>2385.414884745626</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.0413353676392</v>
+        <v>833.1378842587796</v>
       </c>
       <c r="C46" t="n">
-        <v>75.96123154786345</v>
+        <v>833.1378842587796</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96123154786345</v>
+        <v>677.5047711612945</v>
       </c>
       <c r="E46" t="n">
-        <v>75.96123154786345</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F46" t="n">
-        <v>75.96123154786345</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G46" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H46" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I46" t="n">
         <v>75.96123154786345</v>
@@ -7809,16 +7809,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422321</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O46" t="n">
         <v>1044.49322140544</v>
@@ -7827,31 +7827,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T46" t="n">
-        <v>987.6577121146069</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U46" t="n">
-        <v>702.2337187680127</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V46" t="n">
-        <v>702.2337187680127</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="W46" t="n">
-        <v>702.2337187680127</v>
+        <v>1018.345902950081</v>
       </c>
       <c r="X46" t="n">
-        <v>468.1533965509958</v>
+        <v>1018.345902950081</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.0413353676392</v>
+        <v>1018.345902950081</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M3" t="n">
-        <v>524.8175298481927</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8540,7 +8540,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8549,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.0381992661173</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>77.24720226890446</v>
+        <v>77.24720226890437</v>
       </c>
       <c r="K12" t="n">
-        <v>80.71399862161715</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>722.2581654914314</v>
+        <v>71.06488347458476</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>76.57883434277664</v>
+        <v>395.9203452416165</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.96615271976253</v>
+        <v>83.96615271976243</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>77.24720226890446</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>80.71399862161715</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>506.163512751181</v>
       </c>
       <c r="N15" t="n">
-        <v>302.0350807559059</v>
+        <v>71.06488347458476</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.96615271976253</v>
+        <v>83.96615271976243</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>77.24720226890446</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>80.71399862161716</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>392.7599789815682</v>
       </c>
       <c r="M18" t="n">
-        <v>700.983960965488</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>79.59923915071155</v>
       </c>
       <c r="P18" t="n">
-        <v>76.57883434277667</v>
+        <v>76.5788343427765</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.96615271976255</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>77.24720226890446</v>
+        <v>77.2472022689044</v>
       </c>
       <c r="K21" t="n">
-        <v>80.71399862161716</v>
+        <v>80.71399862161707</v>
       </c>
       <c r="L21" t="n">
-        <v>78.11614222553845</v>
+        <v>78.11614222553831</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>537.4012565296578</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.621925947583</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>405.2620010947931</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9731,13 +9731,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>296.744267866067</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>37.8634889524823</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>260.829988467765</v>
       </c>
       <c r="M27" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>155.2572892683739</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>50.0926368599559</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>105.5189109856616</v>
+        <v>72.28331192986909</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461573968</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>629.2816475322225</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O33" t="n">
-        <v>296.744267866067</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O36" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>629.2816475322225</v>
       </c>
       <c r="N39" t="n">
-        <v>2.048060461573968</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P39" t="n">
-        <v>453.9509915085703</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>11.2115456193539</v>
+        <v>629.2816475322225</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P42" t="n">
-        <v>48.81102103770667</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,7 +11305,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488189</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>52.1760984640634</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11387,10 +11387,10 @@
         <v>629.2816475322225</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573954</v>
+        <v>2.048060461573996</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463525</v>
+        <v>16.46232962463529</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.15461412430891</v>
+        <v>31.15461412430881</v>
       </c>
       <c r="S11" t="n">
-        <v>64.84968446427918</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T11" t="n">
         <v>220.8155294883027</v>
@@ -23317,13 +23317,13 @@
         <v>253.1869771745492</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>61.2398612344582</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>166.5253946797129</v>
       </c>
       <c r="H13" t="n">
-        <v>153.5137285205242</v>
+        <v>153.5137285205241</v>
       </c>
       <c r="I13" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J13" t="n">
-        <v>26.81389666635091</v>
+        <v>26.81389666635086</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.5883158341027</v>
       </c>
       <c r="S13" t="n">
         <v>199.9842001330971</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12.93945813320744</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>113.2320828706271</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>235.780444048</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I14" t="n">
         <v>132.9900209556174</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.15461412430881</v>
       </c>
       <c r="S14" t="n">
         <v>162.5055525480066</v>
       </c>
       <c r="T14" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3239313244644</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>51.44330878548386</v>
       </c>
       <c r="E16" t="n">
-        <v>90.93531941623732</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5137285205242</v>
+        <v>153.5137285205241</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J16" t="n">
-        <v>26.81389666635091</v>
+        <v>26.81389666635086</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.5883158341027</v>
       </c>
       <c r="S16" t="n">
-        <v>199.9842001330971</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23718,7 +23718,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>258.1647132077238</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.9283142668997</v>
+        <v>119.0293959103415</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9900209556175</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.15461412430892</v>
+        <v>31.15461412430882</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T17" t="n">
         <v>220.8155294883027</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>110.9166423526707</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5137285205242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J19" t="n">
-        <v>26.81389666635091</v>
+        <v>26.81389666635086</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.5883158341028</v>
+        <v>120.5883158341027</v>
       </c>
       <c r="S19" t="n">
         <v>199.9842001330971</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U19" t="n">
-        <v>76.75837200960245</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>408.9283142668997</v>
@@ -23989,7 +23989,7 @@
         <v>319.7892792266962</v>
       </c>
       <c r="I20" t="n">
-        <v>132.9900209556175</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.15461412430892</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>162.5055525480066</v>
       </c>
       <c r="T20" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>79.30836209557367</v>
       </c>
       <c r="W20" t="n">
-        <v>174.427571067642</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,28 +24129,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.72179401521871</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5137285205242</v>
+        <v>153.5137285205241</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3765665682599</v>
+        <v>127.2085965953783</v>
       </c>
       <c r="J22" t="n">
-        <v>26.81389666635091</v>
+        <v>26.81389666635088</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>199.9842001330971</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>151.5590077848687</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.464125297501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.54382056739047</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>9.366880017298911</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>400.7782837588362</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>229.1264649759931</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3029221927327</v>
@@ -24621,10 +24621,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>230.4991426843616</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>73.84865962540727</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>307.9457488540737</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.28848550455416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>122.0729112304964</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>140.324589577369</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>110.2965757792775</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.93007048955599</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,13 +25092,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>55.89346716040851</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>158.9251175681237</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>40.80473087493547</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>276.4201490115569</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>155.5464064224175</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>144.6878279990934</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>161.9669793347983</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>313.4431319261591</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>155.5464064224173</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>36.26159654522857</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>341.3469118073689</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>113.8693593270194</v>
@@ -25684,10 +25684,10 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>100.6766793060389</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25794,22 +25794,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
-        <v>84.77334861469856</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.6514645776158</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>147.6693065206948</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>191.8684499137351</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.113763973092716</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>78.66416247402029</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>572041.5925178876</v>
+        <v>572041.5925178879</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>572041.5925178876</v>
+        <v>572041.5925178878</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572041.5925178876</v>
+        <v>572041.5925178878</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>572041.5925178877</v>
+        <v>572041.5925178879</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629435.4035347672</v>
+        <v>629435.4035347671</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629435.4035347671</v>
+        <v>629435.4035347672</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629435.4035347671</v>
+        <v>629435.4035347672</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629435.4035347672</v>
+        <v>629435.403534767</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="C2" t="n">
         <v>504930.098661399</v>
@@ -26322,28 +26322,28 @@
         <v>504930.098661399</v>
       </c>
       <c r="E2" t="n">
-        <v>364285.6084486768</v>
+        <v>364285.608448677</v>
       </c>
       <c r="F2" t="n">
-        <v>364285.6084486768</v>
+        <v>364285.608448677</v>
       </c>
       <c r="G2" t="n">
-        <v>364285.6084486769</v>
+        <v>364285.6084486771</v>
       </c>
       <c r="H2" t="n">
-        <v>364285.6084486769</v>
+        <v>364285.6084486771</v>
       </c>
       <c r="I2" t="n">
+        <v>403176.5638757027</v>
+      </c>
+      <c r="J2" t="n">
         <v>403176.5638757029</v>
       </c>
-      <c r="J2" t="n">
-        <v>403176.5638757027</v>
-      </c>
       <c r="K2" t="n">
-        <v>403176.5638757027</v>
+        <v>403176.5638757026</v>
       </c>
       <c r="L2" t="n">
-        <v>403176.5638757027</v>
+        <v>403176.5638757028</v>
       </c>
       <c r="M2" t="n">
         <v>403176.5638757029</v>
@@ -26352,10 +26352,10 @@
         <v>403176.5638757029</v>
       </c>
       <c r="O2" t="n">
-        <v>403176.5638757027</v>
+        <v>403176.5638757029</v>
       </c>
       <c r="P2" t="n">
-        <v>403176.5638757027</v>
+        <v>403176.5638757029</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29417.59821721345</v>
+        <v>29417.5982172139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>130978.3881307328</v>
+        <v>130978.3881307325</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7403.759137484419</v>
+        <v>7403.759137484517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>147610.0298663632</v>
       </c>
       <c r="E4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="F4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="G4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="H4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="I4" t="n">
         <v>25307.38367720429</v>
       </c>
       <c r="J4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
       <c r="K4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
       <c r="L4" t="n">
         <v>25307.38367720429</v>
@@ -26459,7 +26459,7 @@
         <v>25307.38367720429</v>
       </c>
       <c r="P4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720429</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916284</v>
       </c>
       <c r="F5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916284</v>
       </c>
       <c r="G5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916283</v>
       </c>
       <c r="H5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916283</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
         <v>60977.55903357454</v>
@@ -26505,10 +26505,10 @@
         <v>60977.55903357454</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="P5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16262.57632007924</v>
+        <v>16262.57632007913</v>
       </c>
       <c r="C6" t="n">
         <v>276481.9317399081</v>
       </c>
       <c r="D6" t="n">
-        <v>276481.9317399081</v>
+        <v>276481.9317399079</v>
       </c>
       <c r="E6" t="n">
-        <v>259116.483124539</v>
+        <v>258614.181373779</v>
       </c>
       <c r="F6" t="n">
-        <v>288534.0813417524</v>
+        <v>288031.7795909928</v>
       </c>
       <c r="G6" t="n">
-        <v>288534.0813417525</v>
+        <v>288031.7795909929</v>
       </c>
       <c r="H6" t="n">
-        <v>288534.0813417525</v>
+        <v>288031.7795909929</v>
       </c>
       <c r="I6" t="n">
-        <v>185913.2330341913</v>
+        <v>185549.8275528139</v>
       </c>
       <c r="J6" t="n">
-        <v>113727.9080522288</v>
+        <v>113364.5025708516</v>
       </c>
       <c r="K6" t="n">
-        <v>316891.6211649238</v>
+        <v>316528.2156835463</v>
       </c>
       <c r="L6" t="n">
-        <v>316891.6211649239</v>
+        <v>316528.2156835464</v>
       </c>
       <c r="M6" t="n">
-        <v>309487.8620274396</v>
+        <v>309124.456546062</v>
       </c>
       <c r="N6" t="n">
-        <v>316891.6211649241</v>
+        <v>316528.2156835466</v>
       </c>
       <c r="O6" t="n">
-        <v>316891.6211649239</v>
+        <v>316528.2156835466</v>
       </c>
       <c r="P6" t="n">
-        <v>316891.6211649239</v>
+        <v>316528.2156835466</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180505</v>
+        <v>25.57490538180544</v>
       </c>
       <c r="F3" t="n">
-        <v>25.57490538180505</v>
+        <v>25.57490538180544</v>
       </c>
       <c r="G3" t="n">
-        <v>25.57490538180501</v>
+        <v>25.5749053818054</v>
       </c>
       <c r="H3" t="n">
-        <v>25.57490538180501</v>
+        <v>25.5749053818053</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26779,7 +26779,7 @@
         <v>148.9460117980881</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197283</v>
       </c>
       <c r="F4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197283</v>
       </c>
       <c r="G4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197283</v>
       </c>
       <c r="H4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197283</v>
       </c>
       <c r="I4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="J4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="K4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="L4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="M4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="N4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="O4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="P4" t="n">
         <v>949.5153943482931</v>
-      </c>
-      <c r="J4" t="n">
-        <v>949.5153943482933</v>
-      </c>
-      <c r="K4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="L4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="O4" t="n">
-        <v>949.5153943482932</v>
-      </c>
-      <c r="P4" t="n">
-        <v>949.5153943482932</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180505</v>
+        <v>25.57490538180544</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.3711064162831</v>
+        <v>123.3711064162828</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.70963201828378</v>
+        <v>29.70963201828423</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>143.3166660285652</v>
+        <v>143.3166660285649</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828389</v>
+        <v>29.70963201828429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828378</v>
+        <v>29.70963201828423</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>148.7626940525039</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>160.5650484166817</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>167.4139262665954</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.0373779203356</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27624,19 +27624,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>23.62437069888068</v>
       </c>
       <c r="I5" t="n">
-        <v>68.96289909759486</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27827,22 +27827,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>192.5440105574261</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>143.9108283605215</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>111.3307114017065</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>153.3438966110442</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>24.04094380275541</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1028136899771056</v>
+        <v>0.1028136899771072</v>
       </c>
       <c r="H11" t="n">
-        <v>1.052940702478034</v>
+        <v>1.052940702478049</v>
       </c>
       <c r="I11" t="n">
-        <v>3.963724782842369</v>
+        <v>3.963724782842429</v>
       </c>
       <c r="J11" t="n">
-        <v>8.726183419694378</v>
+        <v>8.726183419694511</v>
       </c>
       <c r="K11" t="n">
-        <v>13.07828691642526</v>
+        <v>13.07828691642546</v>
       </c>
       <c r="L11" t="n">
-        <v>16.22477138106211</v>
+        <v>16.22477138106236</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05318434019247</v>
+        <v>18.05318434019274</v>
       </c>
       <c r="N11" t="n">
-        <v>18.34530373683992</v>
+        <v>18.3453037368402</v>
       </c>
       <c r="O11" t="n">
-        <v>17.32295010713007</v>
+        <v>17.32295010713034</v>
       </c>
       <c r="P11" t="n">
-        <v>14.78473713582027</v>
+        <v>14.7847371358205</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.10272186351517</v>
+        <v>11.10272186351534</v>
       </c>
       <c r="R11" t="n">
-        <v>6.458370453024369</v>
+        <v>6.458370453024466</v>
       </c>
       <c r="S11" t="n">
-        <v>2.342866960353297</v>
+        <v>2.342866960353333</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4500669278747802</v>
+        <v>0.450066927874787</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00822509519816845</v>
+        <v>0.008225095198168575</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05501017384010898</v>
+        <v>0.05501017384010981</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5312824684031578</v>
+        <v>0.5312824684031658</v>
       </c>
       <c r="I12" t="n">
-        <v>1.893990634407261</v>
+        <v>1.89399063440729</v>
       </c>
       <c r="J12" t="n">
-        <v>5.197255064428893</v>
+        <v>5.197255064428972</v>
       </c>
       <c r="K12" t="n">
-        <v>8.882936711716194</v>
+        <v>8.882936711716329</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9442046313798</v>
+        <v>11.94420463137998</v>
       </c>
       <c r="M12" t="n">
-        <v>13.93832343308375</v>
+        <v>13.93832343308396</v>
       </c>
       <c r="N12" t="n">
-        <v>14.30722937958168</v>
+        <v>14.30722937958189</v>
       </c>
       <c r="O12" t="n">
-        <v>13.08831973817716</v>
+        <v>13.08831973817735</v>
       </c>
       <c r="P12" t="n">
-        <v>10.504530476538</v>
+        <v>10.50453047653816</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.022000436151455</v>
+        <v>7.022000436151561</v>
       </c>
       <c r="R12" t="n">
-        <v>3.415456231932382</v>
+        <v>3.415456231932433</v>
       </c>
       <c r="S12" t="n">
-        <v>1.021789851810796</v>
+        <v>1.021789851810811</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2217296042064041</v>
+        <v>0.2217296042064074</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003619090384217697</v>
+        <v>0.003619090384217752</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04611868183604188</v>
+        <v>0.04611868183604258</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4100370075968091</v>
+        <v>0.4100370075968153</v>
       </c>
       <c r="I13" t="n">
-        <v>1.386914541032969</v>
+        <v>1.38691454103299</v>
       </c>
       <c r="J13" t="n">
-        <v>3.260590805808161</v>
+        <v>3.26059080580821</v>
       </c>
       <c r="K13" t="n">
-        <v>5.358152307860138</v>
+        <v>5.35815230786022</v>
       </c>
       <c r="L13" t="n">
-        <v>6.856590206787538</v>
+        <v>6.856590206787642</v>
       </c>
       <c r="M13" t="n">
-        <v>7.229313008171546</v>
+        <v>7.229313008171657</v>
       </c>
       <c r="N13" t="n">
-        <v>7.057416103146306</v>
+        <v>7.057416103146412</v>
       </c>
       <c r="O13" t="n">
-        <v>6.518666047152541</v>
+        <v>6.51866604715264</v>
       </c>
       <c r="P13" t="n">
-        <v>5.577844937697282</v>
+        <v>5.577844937697367</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.861810712652562</v>
+        <v>3.861810712652621</v>
       </c>
       <c r="R13" t="n">
-        <v>2.073663639646028</v>
+        <v>2.07366363964606</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8037228461790206</v>
+        <v>0.8037228461790328</v>
       </c>
       <c r="T13" t="n">
-        <v>0.197052549663088</v>
+        <v>0.197052549663091</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002515564463784106</v>
+        <v>0.002515564463784144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1028136899771056</v>
+        <v>0.1028136899771072</v>
       </c>
       <c r="H14" t="n">
-        <v>1.052940702478034</v>
+        <v>1.052940702478049</v>
       </c>
       <c r="I14" t="n">
-        <v>3.963724782842369</v>
+        <v>3.96372478284243</v>
       </c>
       <c r="J14" t="n">
-        <v>8.726183419694378</v>
+        <v>8.726183419694511</v>
       </c>
       <c r="K14" t="n">
-        <v>13.07828691642526</v>
+        <v>13.07828691642546</v>
       </c>
       <c r="L14" t="n">
-        <v>16.22477138106211</v>
+        <v>16.22477138106236</v>
       </c>
       <c r="M14" t="n">
-        <v>18.05318434019247</v>
+        <v>18.05318434019274</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34530373683992</v>
+        <v>18.3453037368402</v>
       </c>
       <c r="O14" t="n">
-        <v>17.32295010713007</v>
+        <v>17.32295010713034</v>
       </c>
       <c r="P14" t="n">
-        <v>14.78473713582027</v>
+        <v>14.7847371358205</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.10272186351517</v>
+        <v>11.10272186351535</v>
       </c>
       <c r="R14" t="n">
-        <v>6.458370453024369</v>
+        <v>6.458370453024467</v>
       </c>
       <c r="S14" t="n">
-        <v>2.342866960353297</v>
+        <v>2.342866960353333</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4500669278747802</v>
+        <v>0.4500669278747871</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00822509519816845</v>
+        <v>0.008225095198168575</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05501017384010898</v>
+        <v>0.05501017384010982</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5312824684031578</v>
+        <v>0.531282468403166</v>
       </c>
       <c r="I15" t="n">
-        <v>1.893990634407261</v>
+        <v>1.89399063440729</v>
       </c>
       <c r="J15" t="n">
-        <v>5.197255064428893</v>
+        <v>5.197255064428973</v>
       </c>
       <c r="K15" t="n">
-        <v>8.882936711716194</v>
+        <v>8.882936711716329</v>
       </c>
       <c r="L15" t="n">
-        <v>11.9442046313798</v>
+        <v>11.94420463137999</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93832343308375</v>
+        <v>13.93832343308396</v>
       </c>
       <c r="N15" t="n">
-        <v>14.30722937958168</v>
+        <v>14.30722937958189</v>
       </c>
       <c r="O15" t="n">
-        <v>13.08831973817716</v>
+        <v>13.08831973817736</v>
       </c>
       <c r="P15" t="n">
-        <v>10.504530476538</v>
+        <v>10.50453047653816</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.022000436151455</v>
+        <v>7.022000436151562</v>
       </c>
       <c r="R15" t="n">
-        <v>3.415456231932382</v>
+        <v>3.415456231932434</v>
       </c>
       <c r="S15" t="n">
-        <v>1.021789851810796</v>
+        <v>1.021789851810811</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2217296042064041</v>
+        <v>0.2217296042064075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003619090384217697</v>
+        <v>0.003619090384217752</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611868183604188</v>
+        <v>0.04611868183604259</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4100370075968091</v>
+        <v>0.4100370075968153</v>
       </c>
       <c r="I16" t="n">
-        <v>1.386914541032969</v>
+        <v>1.38691454103299</v>
       </c>
       <c r="J16" t="n">
-        <v>3.260590805808161</v>
+        <v>3.260590805808211</v>
       </c>
       <c r="K16" t="n">
-        <v>5.358152307860138</v>
+        <v>5.35815230786022</v>
       </c>
       <c r="L16" t="n">
-        <v>6.856590206787538</v>
+        <v>6.856590206787643</v>
       </c>
       <c r="M16" t="n">
-        <v>7.229313008171546</v>
+        <v>7.229313008171657</v>
       </c>
       <c r="N16" t="n">
-        <v>7.057416103146306</v>
+        <v>7.057416103146413</v>
       </c>
       <c r="O16" t="n">
-        <v>6.518666047152541</v>
+        <v>6.518666047152641</v>
       </c>
       <c r="P16" t="n">
-        <v>5.577844937697282</v>
+        <v>5.577844937697368</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.861810712652562</v>
+        <v>3.861810712652621</v>
       </c>
       <c r="R16" t="n">
-        <v>2.073663639646028</v>
+        <v>2.07366363964606</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8037228461790206</v>
+        <v>0.8037228461790329</v>
       </c>
       <c r="T16" t="n">
-        <v>0.197052549663088</v>
+        <v>0.197052549663091</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002515564463784106</v>
+        <v>0.002515564463784144</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028136899771055</v>
+        <v>0.1028136899771071</v>
       </c>
       <c r="H17" t="n">
-        <v>1.052940702478032</v>
+        <v>1.052940702478048</v>
       </c>
       <c r="I17" t="n">
-        <v>3.963724782842363</v>
+        <v>3.963724782842424</v>
       </c>
       <c r="J17" t="n">
-        <v>8.726183419694364</v>
+        <v>8.7261834196945</v>
       </c>
       <c r="K17" t="n">
-        <v>13.07828691642524</v>
+        <v>13.07828691642544</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22477138106209</v>
+        <v>16.22477138106234</v>
       </c>
       <c r="M17" t="n">
-        <v>18.05318434019243</v>
+        <v>18.05318434019271</v>
       </c>
       <c r="N17" t="n">
-        <v>18.34530373683989</v>
+        <v>18.34530373684017</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32295010713004</v>
+        <v>17.32295010713031</v>
       </c>
       <c r="P17" t="n">
-        <v>14.78473713582025</v>
+        <v>14.78473713582048</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.10272186351516</v>
+        <v>11.10272186351533</v>
       </c>
       <c r="R17" t="n">
-        <v>6.458370453024358</v>
+        <v>6.458370453024458</v>
       </c>
       <c r="S17" t="n">
-        <v>2.342866960353293</v>
+        <v>2.34286696035333</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4500669278747795</v>
+        <v>0.4500669278747865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008225095198168436</v>
+        <v>0.008225095198168565</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05501017384010888</v>
+        <v>0.05501017384010974</v>
       </c>
       <c r="H18" t="n">
-        <v>0.531282468403157</v>
+        <v>0.5312824684031652</v>
       </c>
       <c r="I18" t="n">
-        <v>1.893990634407258</v>
+        <v>1.893990634407287</v>
       </c>
       <c r="J18" t="n">
-        <v>5.197255064428885</v>
+        <v>5.197255064428965</v>
       </c>
       <c r="K18" t="n">
-        <v>8.882936711716178</v>
+        <v>8.882936711716317</v>
       </c>
       <c r="L18" t="n">
-        <v>11.94420463137978</v>
+        <v>11.94420463137997</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93832343308373</v>
+        <v>13.93832343308394</v>
       </c>
       <c r="N18" t="n">
-        <v>14.30722937958165</v>
+        <v>14.30722937958187</v>
       </c>
       <c r="O18" t="n">
-        <v>13.08831973817713</v>
+        <v>13.08831973817734</v>
       </c>
       <c r="P18" t="n">
-        <v>10.50453047653798</v>
+        <v>10.50453047653815</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.022000436151443</v>
+        <v>7.022000436151552</v>
       </c>
       <c r="R18" t="n">
-        <v>3.415456231932376</v>
+        <v>3.415456231932429</v>
       </c>
       <c r="S18" t="n">
-        <v>1.021789851810794</v>
+        <v>1.02178985181081</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2217296042064037</v>
+        <v>0.2217296042064072</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003619090384217691</v>
+        <v>0.003619090384217748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04611868183604181</v>
+        <v>0.04611868183604253</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4100370075968084</v>
+        <v>0.4100370075968148</v>
       </c>
       <c r="I19" t="n">
-        <v>1.386914541032967</v>
+        <v>1.386914541032988</v>
       </c>
       <c r="J19" t="n">
-        <v>3.260590805808156</v>
+        <v>3.260590805808206</v>
       </c>
       <c r="K19" t="n">
-        <v>5.358152307860129</v>
+        <v>5.358152307860212</v>
       </c>
       <c r="L19" t="n">
-        <v>6.856590206787526</v>
+        <v>6.856590206787633</v>
       </c>
       <c r="M19" t="n">
-        <v>7.229313008171535</v>
+        <v>7.229313008171648</v>
       </c>
       <c r="N19" t="n">
-        <v>7.057416103146294</v>
+        <v>7.057416103146403</v>
       </c>
       <c r="O19" t="n">
-        <v>6.51866604715253</v>
+        <v>6.518666047152632</v>
       </c>
       <c r="P19" t="n">
-        <v>5.577844937697273</v>
+        <v>5.57784493769736</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.861810712652556</v>
+        <v>3.861810712652616</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073663639646025</v>
+        <v>2.073663639646057</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8037228461790192</v>
+        <v>0.8037228461790318</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1970525496630877</v>
+        <v>0.1970525496630907</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002515564463784101</v>
+        <v>0.002515564463784141</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1028136899771055</v>
+        <v>0.1028136899771067</v>
       </c>
       <c r="H20" t="n">
-        <v>1.052940702478032</v>
+        <v>1.052940702478044</v>
       </c>
       <c r="I20" t="n">
-        <v>3.963724782842363</v>
+        <v>3.963724782842408</v>
       </c>
       <c r="J20" t="n">
-        <v>8.726183419694364</v>
+        <v>8.726183419694465</v>
       </c>
       <c r="K20" t="n">
-        <v>13.07828691642524</v>
+        <v>13.07828691642539</v>
       </c>
       <c r="L20" t="n">
-        <v>16.22477138106209</v>
+        <v>16.22477138106227</v>
       </c>
       <c r="M20" t="n">
-        <v>18.05318434019243</v>
+        <v>18.05318434019264</v>
       </c>
       <c r="N20" t="n">
-        <v>18.34530373683989</v>
+        <v>18.3453037368401</v>
       </c>
       <c r="O20" t="n">
-        <v>17.32295010713004</v>
+        <v>17.32295010713024</v>
       </c>
       <c r="P20" t="n">
-        <v>14.78473713582025</v>
+        <v>14.78473713582042</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.10272186351516</v>
+        <v>11.10272186351528</v>
       </c>
       <c r="R20" t="n">
-        <v>6.458370453024358</v>
+        <v>6.458370453024432</v>
       </c>
       <c r="S20" t="n">
-        <v>2.342866960353293</v>
+        <v>2.34286696035332</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4500669278747795</v>
+        <v>0.4500669278747846</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008225095198168436</v>
+        <v>0.008225095198168532</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05501017384010888</v>
+        <v>0.05501017384010952</v>
       </c>
       <c r="H21" t="n">
-        <v>0.531282468403157</v>
+        <v>0.5312824684031631</v>
       </c>
       <c r="I21" t="n">
-        <v>1.893990634407258</v>
+        <v>1.89399063440728</v>
       </c>
       <c r="J21" t="n">
-        <v>5.197255064428885</v>
+        <v>5.197255064428944</v>
       </c>
       <c r="K21" t="n">
-        <v>8.882936711716178</v>
+        <v>8.882936711716281</v>
       </c>
       <c r="L21" t="n">
-        <v>11.94420463137978</v>
+        <v>11.94420463137992</v>
       </c>
       <c r="M21" t="n">
-        <v>13.93832343308373</v>
+        <v>13.93832343308389</v>
       </c>
       <c r="N21" t="n">
-        <v>14.30722937958165</v>
+        <v>14.30722937958182</v>
       </c>
       <c r="O21" t="n">
-        <v>13.08831973817713</v>
+        <v>13.08831973817728</v>
       </c>
       <c r="P21" t="n">
-        <v>10.50453047653798</v>
+        <v>10.50453047653811</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.022000436151443</v>
+        <v>7.022000436151524</v>
       </c>
       <c r="R21" t="n">
-        <v>3.415456231932376</v>
+        <v>3.415456231932415</v>
       </c>
       <c r="S21" t="n">
-        <v>1.021789851810794</v>
+        <v>1.021789851810806</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2217296042064037</v>
+        <v>0.2217296042064063</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003619090384217691</v>
+        <v>0.003619090384217733</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04611868183604181</v>
+        <v>0.04611868183604234</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4100370075968084</v>
+        <v>0.4100370075968131</v>
       </c>
       <c r="I22" t="n">
-        <v>1.386914541032967</v>
+        <v>1.386914541032983</v>
       </c>
       <c r="J22" t="n">
-        <v>3.260590805808156</v>
+        <v>3.260590805808193</v>
       </c>
       <c r="K22" t="n">
-        <v>5.358152307860129</v>
+        <v>5.358152307860191</v>
       </c>
       <c r="L22" t="n">
-        <v>6.856590206787526</v>
+        <v>6.856590206787605</v>
       </c>
       <c r="M22" t="n">
-        <v>7.229313008171535</v>
+        <v>7.229313008171618</v>
       </c>
       <c r="N22" t="n">
-        <v>7.057416103146294</v>
+        <v>7.057416103146375</v>
       </c>
       <c r="O22" t="n">
-        <v>6.51866604715253</v>
+        <v>6.518666047152605</v>
       </c>
       <c r="P22" t="n">
-        <v>5.577844937697273</v>
+        <v>5.577844937697337</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.861810712652556</v>
+        <v>3.8618107126526</v>
       </c>
       <c r="R22" t="n">
-        <v>2.073663639646025</v>
+        <v>2.073663639646049</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8037228461790192</v>
+        <v>0.8037228461790286</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1970525496630877</v>
+        <v>0.19705254966309</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002515564463784101</v>
+        <v>0.002515564463784131</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I23" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086072</v>
@@ -32727,22 +32727,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M24" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T24" t="n">
         <v>1.291333819268329</v>
@@ -32861,31 +32861,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I25" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K25" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N25" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q25" t="n">
         <v>22.4908477815113</v>
@@ -32894,7 +32894,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T25" t="n">
         <v>1.147616812214777</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,22 +32964,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R28" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,22 +33201,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T30" t="n">
         <v>1.291333819268329</v>
@@ -33335,31 +33335,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N31" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
         <v>22.4908477815113</v>
@@ -33368,7 +33368,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I32" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086072</v>
@@ -33438,22 +33438,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M33" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T33" t="n">
         <v>1.291333819268329</v>
@@ -33572,31 +33572,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I34" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K34" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N34" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q34" t="n">
         <v>22.4908477815113</v>
@@ -33605,7 +33605,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214777</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I35" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086072</v>
@@ -33675,22 +33675,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,40 +33730,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T36" t="n">
         <v>1.291333819268329</v>
@@ -33809,31 +33809,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I37" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K37" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N37" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q37" t="n">
         <v>22.4908477815113</v>
@@ -33842,7 +33842,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214777</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I38" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086072</v>
@@ -33912,22 +33912,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,40 +33967,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T39" t="n">
         <v>1.291333819268329</v>
@@ -34046,31 +34046,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I40" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K40" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N40" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q40" t="n">
         <v>22.4908477815113</v>
@@ -34079,7 +34079,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214777</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767353</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038867</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999186</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798408</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367549</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N44" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>86.1050157952957</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657862</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926995</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085101</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995796</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259266</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642536</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595806</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650022</v>
       </c>
       <c r="T45" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673366</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927757</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322415</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097289</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U46" t="n">
         <v>0.01465042738997589</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M3" t="n">
-        <v>432.4304077988809</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35269,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.05004611020335</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>154.8370651457834</v>
+        <v>154.8370651457835</v>
       </c>
       <c r="K11" t="n">
-        <v>375.6867273482049</v>
+        <v>375.6867273482051</v>
       </c>
       <c r="L11" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492734</v>
       </c>
       <c r="M11" t="n">
-        <v>569.569244991284</v>
+        <v>569.5692449912842</v>
       </c>
       <c r="N11" t="n">
-        <v>551.4880144817511</v>
+        <v>551.4880144817513</v>
       </c>
       <c r="O11" t="n">
-        <v>461.8073954529164</v>
+        <v>461.8073954529166</v>
       </c>
       <c r="P11" t="n">
-        <v>366.489274642408</v>
+        <v>366.4892746424082</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.8154088745743</v>
+        <v>197.8154088745745</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>331.8517711180057</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3947964478579</v>
+        <v>500.394796447858</v>
       </c>
       <c r="M12" t="n">
-        <v>648.0511008337718</v>
+        <v>648.051100833772</v>
       </c>
       <c r="N12" t="n">
-        <v>651.1932820168464</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>534.8259789209862</v>
+        <v>534.8259789209865</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>319.34151089884</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>88.01980999467011</v>
+        <v>88.0198099946702</v>
       </c>
       <c r="L13" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M13" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N13" t="n">
-        <v>192.0974504781051</v>
+        <v>192.0974504781052</v>
       </c>
       <c r="O13" t="n">
-        <v>170.8669155842314</v>
+        <v>170.8669155842315</v>
       </c>
       <c r="P13" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.318574722805046</v>
+        <v>7.318574722805104</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.8370651457834</v>
+        <v>154.8370651457835</v>
       </c>
       <c r="K14" t="n">
-        <v>375.6867273482049</v>
+        <v>375.6867273482051</v>
       </c>
       <c r="L14" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492734</v>
       </c>
       <c r="M14" t="n">
-        <v>569.569244991284</v>
+        <v>569.5692449912842</v>
       </c>
       <c r="N14" t="n">
-        <v>551.4880144817511</v>
+        <v>551.4880144817513</v>
       </c>
       <c r="O14" t="n">
-        <v>461.8073954529164</v>
+        <v>461.8073954529166</v>
       </c>
       <c r="P14" t="n">
-        <v>366.489274642408</v>
+        <v>366.4892746424082</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.8154088745743</v>
+        <v>197.8154088745745</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>331.8517711180057</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3947964478579</v>
+        <v>500.394796447858</v>
       </c>
       <c r="M15" t="n">
-        <v>648.0511008337718</v>
+        <v>427.714714134953</v>
       </c>
       <c r="N15" t="n">
-        <v>230.9701972813209</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>534.8259789209862</v>
+        <v>534.8259789209865</v>
       </c>
       <c r="P15" t="n">
-        <v>420.2230847355253</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>88.01980999467011</v>
+        <v>88.0198099946702</v>
       </c>
       <c r="L16" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M16" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N16" t="n">
-        <v>192.0974504781051</v>
+        <v>192.0974504781052</v>
       </c>
       <c r="O16" t="n">
-        <v>170.8669155842314</v>
+        <v>170.8669155842315</v>
       </c>
       <c r="P16" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.318574722805046</v>
+        <v>7.318574722805105</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>154.8370651457834</v>
+        <v>154.8370651457835</v>
       </c>
       <c r="K17" t="n">
-        <v>375.6867273482048</v>
+        <v>375.6867273482051</v>
       </c>
       <c r="L17" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492733</v>
       </c>
       <c r="M17" t="n">
-        <v>569.5692449912839</v>
+        <v>569.5692449912842</v>
       </c>
       <c r="N17" t="n">
-        <v>551.4880144817511</v>
+        <v>551.4880144817513</v>
       </c>
       <c r="O17" t="n">
-        <v>461.8073954529164</v>
+        <v>461.8073954529166</v>
       </c>
       <c r="P17" t="n">
-        <v>366.489274642408</v>
+        <v>366.4892746424082</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.8154088745743</v>
+        <v>197.8154088745745</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3947964478578</v>
+        <v>314.64383675603</v>
       </c>
       <c r="M18" t="n">
-        <v>622.5351623492598</v>
+        <v>648.051100833772</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7092205013585</v>
+        <v>676.7092205013587</v>
       </c>
       <c r="O18" t="n">
-        <v>534.8259789209862</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>243.7544161481622</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.0198099946701</v>
+        <v>88.01980999467018</v>
       </c>
       <c r="L19" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M19" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N19" t="n">
-        <v>192.0974504781051</v>
+        <v>192.0974504781052</v>
       </c>
       <c r="O19" t="n">
-        <v>170.8669155842314</v>
+        <v>170.8669155842315</v>
       </c>
       <c r="P19" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.318574722805039</v>
+        <v>7.318574722805099</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>154.8370651457834</v>
+        <v>154.8370651457835</v>
       </c>
       <c r="K20" t="n">
-        <v>375.6867273482048</v>
+        <v>375.686727348205</v>
       </c>
       <c r="L20" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492733</v>
       </c>
       <c r="M20" t="n">
-        <v>569.5692449912839</v>
+        <v>569.5692449912841</v>
       </c>
       <c r="N20" t="n">
-        <v>551.4880144817511</v>
+        <v>551.4880144817513</v>
       </c>
       <c r="O20" t="n">
-        <v>461.8073954529164</v>
+        <v>461.8073954529165</v>
       </c>
       <c r="P20" t="n">
-        <v>366.489274642408</v>
+        <v>366.4892746424081</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.8154088745743</v>
+        <v>197.8154088745744</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>648.0511008337718</v>
+        <v>458.9524579134297</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7092205013585</v>
+        <v>676.7092205013587</v>
       </c>
       <c r="O21" t="n">
-        <v>534.8259789209862</v>
+        <v>534.8259789209864</v>
       </c>
       <c r="P21" t="n">
-        <v>420.2230847355253</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65577322782043</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.0198099946701</v>
+        <v>88.01980999467017</v>
       </c>
       <c r="L22" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M22" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N22" t="n">
-        <v>192.0974504781051</v>
+        <v>192.0974504781052</v>
       </c>
       <c r="O22" t="n">
-        <v>170.8669155842314</v>
+        <v>170.8669155842315</v>
       </c>
       <c r="P22" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.318574722805039</v>
+        <v>7.318574722805083</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>367.3985121423108</v>
       </c>
       <c r="L24" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>240.3316445737181</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N27" t="n">
-        <v>153.2092288067999</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36770,10 +36770,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>53.34281252159825</v>
+        <v>20.10721346580571</v>
       </c>
       <c r="K30" t="n">
         <v>374.7022807871404</v>
@@ -36919,19 +36919,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>618.0701019128685</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>618.0701019128685</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>428.0450933087383</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>618.0701019128685</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>22.90512283787467</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K44" t="n">
         <v>438.7752394197637</v>
@@ -38025,19 +38025,19 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596988</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O44" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419567</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.6279320079687</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
